--- a/CAD/BC840M+ADS131_BOM.xlsx
+++ b/CAD/BC840M+ADS131_BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
   <si>
     <t>Designators</t>
   </si>
@@ -353,6 +353,18 @@
   </si>
   <si>
     <t>0603 CHIPLED GREEN</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>SM02B-SRSS-TB(LF)(SN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONN HEADER SH 2POS 1MM </t>
+  </si>
+  <si>
+    <t>Win-Source:</t>
   </si>
   <si>
     <t>Unit Cost</t>
@@ -365,7 +377,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -403,7 +415,6 @@
       <color rgb="FF0070BB"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <u/>
       <sz val="9.0"/>
@@ -425,10 +436,6 @@
     <font>
       <u/>
       <color rgb="FF1155CC"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <color theme="1"/>
       <name val="Inherit"/>
     </font>
   </fonts>
@@ -458,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -481,22 +488,18 @@
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -714,7 +717,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="55.57"/>
-    <col customWidth="1" min="3" max="3" width="21.0"/>
+    <col customWidth="1" min="3" max="3" width="23.71"/>
     <col customWidth="1" min="4" max="4" width="31.57"/>
     <col customWidth="1" min="5" max="5" width="39.14"/>
   </cols>
@@ -1034,7 +1037,7 @@
       <c r="C12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="1">
@@ -1057,7 +1060,7 @@
       <c r="B13" s="1">
         <v>2.0</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1083,7 +1086,7 @@
       <c r="B14" s="1">
         <v>7.0</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1109,7 +1112,7 @@
       <c r="B15" s="1">
         <v>1.0</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1135,7 +1138,7 @@
       <c r="B16" s="1">
         <v>4.0</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1164,7 +1167,7 @@
       <c r="C17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G17" s="1">
@@ -1187,7 +1190,7 @@
       <c r="B18" s="1">
         <v>4.0</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1213,7 +1216,7 @@
       <c r="B19" s="1">
         <v>1.0</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1239,7 +1242,7 @@
       <c r="B20" s="1">
         <v>8.0</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1268,7 +1271,7 @@
       <c r="B21" s="1">
         <v>16.0</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1297,7 +1300,7 @@
       <c r="B22" s="1">
         <v>1.0</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1323,7 +1326,7 @@
       <c r="B23" s="1">
         <v>2.0</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1349,7 +1352,7 @@
       <c r="B24" s="1">
         <v>1.0</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1453,7 +1456,7 @@
       <c r="B28" s="1">
         <v>3.0</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>88</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1505,7 +1508,7 @@
       <c r="B30" s="1">
         <v>1.0</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>94</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1531,7 +1534,7 @@
       <c r="B31" s="1">
         <v>2.0</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>97</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1661,7 +1664,7 @@
       <c r="B36" s="1">
         <v>1.0</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>112</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1681,85 +1684,113 @@
       </c>
     </row>
     <row r="37">
-      <c r="C37" s="13"/>
-      <c r="G37" s="4">
-        <f t="shared" ref="G37:J37" si="1">SUM(G2:G36)</f>
-        <v>35.249</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="A37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>51.74</v>
+      </c>
+      <c r="J37" s="1">
+        <v>301.125</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="G38" s="4">
+        <f t="shared" ref="G38:J38" si="1">SUM(G2:G37)</f>
+        <v>36.249</v>
+      </c>
+      <c r="H38" s="4">
         <f t="shared" si="1"/>
-        <v>316.08</v>
-      </c>
-      <c r="I37" s="4">
+        <v>326.08</v>
+      </c>
+      <c r="I38" s="4">
         <f t="shared" si="1"/>
-        <v>2714.7</v>
-      </c>
-      <c r="J37" s="4">
+        <v>2766.44</v>
+      </c>
+      <c r="J38" s="4">
         <f t="shared" si="1"/>
-        <v>20544</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="F38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="4">
-        <f>G37</f>
-        <v>35.249</v>
-      </c>
-      <c r="H38" s="4">
-        <f>H37/10</f>
-        <v>31.608</v>
-      </c>
-      <c r="I38" s="4">
-        <f>I37/100</f>
-        <v>27.147</v>
-      </c>
-      <c r="J38" s="4">
-        <f>J37/1000</f>
-        <v>20.544</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="F41" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G41" s="4">
-        <f t="shared" ref="G41:J41" si="2">G37-(G32+G33)</f>
-        <v>27.379</v>
-      </c>
-      <c r="H41" s="4">
-        <f t="shared" si="2"/>
-        <v>240.48</v>
-      </c>
-      <c r="I41" s="4">
-        <f t="shared" si="2"/>
-        <v>2084.7</v>
-      </c>
-      <c r="J41" s="4">
-        <f t="shared" si="2"/>
-        <v>15984</v>
+        <v>20845.125</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" s="4">
+        <f>G38</f>
+        <v>36.249</v>
+      </c>
+      <c r="H39" s="4">
+        <f>H38/10</f>
+        <v>32.608</v>
+      </c>
+      <c r="I39" s="4">
+        <f>I38/100</f>
+        <v>27.6644</v>
+      </c>
+      <c r="J39" s="4">
+        <f>J38/1000</f>
+        <v>20.845125</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G42" s="4">
-        <f>G41</f>
-        <v>27.379</v>
+        <f t="shared" ref="G42:J42" si="2">G38-(G32+G33)</f>
+        <v>28.379</v>
       </c>
       <c r="H42" s="4">
-        <f>H41/10</f>
-        <v>24.048</v>
+        <f t="shared" si="2"/>
+        <v>250.48</v>
       </c>
       <c r="I42" s="4">
-        <f>I41/100</f>
-        <v>20.847</v>
+        <f t="shared" si="2"/>
+        <v>2136.44</v>
       </c>
       <c r="J42" s="4">
-        <f>J41/1000</f>
-        <v>15.984</v>
+        <f t="shared" si="2"/>
+        <v>16285.125</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="F43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="4">
+        <f>G42</f>
+        <v>28.379</v>
+      </c>
+      <c r="H43" s="4">
+        <f>H42/10</f>
+        <v>25.048</v>
+      </c>
+      <c r="I43" s="4">
+        <f>I42/100</f>
+        <v>21.3644</v>
+      </c>
+      <c r="J43" s="4">
+        <f>J42/1000</f>
+        <v>16.285125</v>
       </c>
     </row>
   </sheetData>
@@ -1801,7 +1832,9 @@
     <hyperlink r:id="rId35" ref="C34"/>
     <hyperlink r:id="rId36" ref="C35"/>
     <hyperlink r:id="rId37" ref="C36"/>
+    <hyperlink r:id="rId38" ref="C37"/>
+    <hyperlink r:id="rId39" ref="F37"/>
   </hyperlinks>
-  <drawing r:id="rId38"/>
+  <drawing r:id="rId40"/>
 </worksheet>
 </file>